--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/84/parameters.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/84/parameters.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3833833833833834</v>
+        <v>0.4260426042604261</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>422.4224224224225</v>
+        <v>128.8828882888289</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.06596596596596598</v>
+        <v>0.02028202820282028</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6136136136136137</v>
+        <v>0.1543154315431543</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1993.993993993994</v>
+        <v>381.2281228122812</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>82.0820820820821</v>
+        <v>694.3294329432944</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>205.2052052052052</v>
+        <v>352.3834383438344</v>
       </c>
     </row>
   </sheetData>
